--- a/documentation/133_GESTPROJ_RSB.xlsx
+++ b/documentation/133_GESTPROJ_RSB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/bernardo_simoes_studentfr_ch/Documents/RP/3eme année/133/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="334" documentId="13_ncr:1_{B2EE3FAD-7866-4BF9-A652-D7DAE85AC2A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B621904E-31C3-4AE2-BBD6-D7080340AE8B}"/>
+  <xr:revisionPtr revIDLastSave="388" documentId="13_ncr:1_{B2EE3FAD-7866-4BF9-A652-D7DAE85AC2A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC03E4B7-04BB-4199-AB29-5FB417138CF9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="91">
   <si>
     <t>Planning</t>
   </si>
@@ -382,6 +382,36 @@
   </si>
   <si>
     <t>Journal</t>
+  </si>
+  <si>
+    <t>Réalisation diagramme de classes navigation</t>
+  </si>
+  <si>
+    <t>Réalisation diagrammes de classes APIGateway</t>
+  </si>
+  <si>
+    <t>Réalisation diagramme des architectes</t>
+  </si>
+  <si>
+    <t>Mise en place de la structure du backend</t>
+  </si>
+  <si>
+    <t>Mise en place du code pour le backend admin</t>
+  </si>
+  <si>
+    <t>Réalisation du journal et EMFAudits</t>
+  </si>
+  <si>
+    <t>Fin conception (Diagramme de classes)</t>
+  </si>
+  <si>
+    <t>Documentation Analyse + conception</t>
+  </si>
+  <si>
+    <t>Implémentation ( APIRest client)</t>
+  </si>
+  <si>
+    <t>Démonstration de l'application</t>
   </si>
 </sst>
 </file>
@@ -843,7 +873,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="90"/>
@@ -932,6 +962,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -953,10 +989,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -974,6 +1020,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1268,13 +1318,13 @@
   </sheetPr>
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A8" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="J15" sqref="J14:J15"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A18" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30:J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.85546875" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
     <col min="2" max="10" width="8" customWidth="1"/>
     <col min="11" max="11" width="10.42578125" customWidth="1"/>
     <col min="12" max="12" width="6.5703125" customWidth="1"/>
@@ -1284,64 +1334,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="51"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="53"/>
       <c r="N3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="50">
+      <c r="O3" s="52">
         <v>300231</v>
       </c>
-      <c r="P3" s="51"/>
+      <c r="P3" s="53"/>
     </row>
     <row r="4" spans="1:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="51"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="53"/>
       <c r="N4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1351,31 +1401,31 @@
     </row>
     <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="47" t="s">
+      <c r="C7" s="50"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="48"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="47" t="s">
+      <c r="F7" s="50"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="48"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="47" t="s">
+      <c r="I7" s="50"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="48"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="47" t="s">
+      <c r="L7" s="50"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="O7" s="48"/>
-      <c r="P7" s="49"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="51"/>
     </row>
     <row r="8" spans="1:16" s="1" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
@@ -1611,7 +1661,7 @@
       <c r="E17" s="12"/>
       <c r="F17" s="7"/>
       <c r="G17" s="13"/>
-      <c r="H17" s="53" t="s">
+      <c r="H17" s="46" t="s">
         <v>60</v>
       </c>
       <c r="I17" s="45"/>
@@ -1633,7 +1683,7 @@
       <c r="E18" s="12"/>
       <c r="F18" s="7"/>
       <c r="G18" s="13"/>
-      <c r="H18" s="53" t="s">
+      <c r="H18" s="46" t="s">
         <v>60</v>
       </c>
       <c r="I18" s="6"/>
@@ -1655,7 +1705,7 @@
       <c r="E19" s="12"/>
       <c r="F19" s="21"/>
       <c r="G19" s="13"/>
-      <c r="H19" s="53" t="s">
+      <c r="H19" s="46" t="s">
         <v>60</v>
       </c>
       <c r="I19" s="42"/>
@@ -1698,7 +1748,7 @@
       <c r="F21" s="7"/>
       <c r="G21" s="13"/>
       <c r="H21" s="12"/>
-      <c r="I21" s="54" t="s">
+      <c r="I21" s="47" t="s">
         <v>60</v>
       </c>
       <c r="J21" s="13"/>
@@ -1827,44 +1877,71 @@
       <c r="A28" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="21"/>
-      <c r="P28" s="22"/>
-    </row>
-    <row r="29" spans="1:16" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="19"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="14"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="16"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="60"/>
+      <c r="K28" s="58"/>
+      <c r="L28" s="59"/>
+      <c r="M28" s="60"/>
+      <c r="N28" s="58"/>
+      <c r="O28" s="59"/>
+      <c r="P28" s="60"/>
+    </row>
+    <row r="29" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" s="20"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="42"/>
+      <c r="P29" s="61"/>
     </row>
     <row r="30" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="25" t="s">
         <v>44</v>
       </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="G30" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="H30" s="64" t="s">
+        <v>60</v>
+      </c>
+      <c r="I30" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="J30" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="K30" s="57"/>
+      <c r="L30" s="55"/>
+      <c r="M30" s="56"/>
+      <c r="N30" s="57"/>
+      <c r="O30" s="55"/>
+      <c r="P30" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1879,7 +1956,7 @@
     <mergeCell ref="K7:M7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="95" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="93" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;LModule 133&amp;RPlanning</oddHeader>
     <oddFooter>&amp;C&amp;D&amp;R&amp;P/&amp;N</oddFooter>
@@ -1903,11 +1980,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
@@ -2028,24 +2105,48 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="30"/>
+      <c r="A16" s="28">
+        <v>45747</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="30">
+        <v>2</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="30"/>
+      <c r="A17" s="28">
+        <v>45747</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="30">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="30"/>
+      <c r="A18" s="28">
+        <v>45747</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="30">
+        <v>3.75</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="28"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="30"/>
+      <c r="A19" s="28">
+        <v>45747</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="30">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="28"/>
@@ -2064,7 +2165,7 @@
       <c r="B22" s="29"/>
       <c r="C22" s="30">
         <f>SUM(C8:C21)</f>
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -2110,7 +2211,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2121,11 +2222,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
@@ -2213,34 +2314,70 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="30"/>
+      <c r="A13" s="28">
+        <v>45747</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="30">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="30"/>
+      <c r="A14" s="28">
+        <v>45747</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="30">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="30"/>
+      <c r="A15" s="28">
+        <v>45747</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="30">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="30"/>
+      <c r="A16" s="28">
+        <v>45747</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="30">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="30"/>
+      <c r="A17" s="28">
+        <v>45747</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="30">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="30"/>
+      <c r="A18" s="28">
+        <v>45748</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="30">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="28"/>
@@ -2264,7 +2401,7 @@
       <c r="B22" s="29"/>
       <c r="C22" s="30">
         <f>SUM(C8:C21)</f>
-        <v>5.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -2321,11 +2458,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
@@ -2524,6 +2661,71 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Self_Registration_Enabled xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Student_Groups xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Student_Groups>
+    <Distribution_Groups xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <AppVersion xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Invited_Teachers xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Templates xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Has_Teacher_Only_SectionGroup xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <CultureName xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <LMS_Mappings xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Invited_Students xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <FolderType xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Teachers xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Teachers>
+    <TeamsChannelId xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <IsNotebookLocked xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Is_Collaboration_Space_Locked xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Teams_Channel_Section_Location xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Math_Settings xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Owner xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Owner>
+    <Students xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Students>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3fb344db-9a83-4925-8457-d4a81a8233b7" xsi:nil="true"/>
+    <NotebookType xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <DefaultSectionNames xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004EEFC8B7315DA4449F69FE97A704FE57" ma:contentTypeVersion="35" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="c91a1a7a62e987314df808fa39da4b34">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cc3645a1-58b5-4da5-acb4-f681c13b5e81" xmlns:ns3="3fb344db-9a83-4925-8457-d4a81a8233b7" xmlns:ns4="52c6fd7a-766c-4f84-9f35-2a37be325271" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5e3023738844047246cab05fc3830165" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="cc3645a1-58b5-4da5-acb4-f681c13b5e81"/>
@@ -2977,72 +3179,33 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE303A41-7D70-49B7-87A8-C6207A042BC3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="52c6fd7a-766c-4f84-9f35-2a37be325271"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="cc3645a1-58b5-4da5-acb4-f681c13b5e81"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="3fb344db-9a83-4925-8457-d4a81a8233b7"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Self_Registration_Enabled xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Student_Groups xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Student_Groups>
-    <Distribution_Groups xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <AppVersion xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Invited_Teachers xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Templates xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Has_Teacher_Only_SectionGroup xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <CultureName xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <LMS_Mappings xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Invited_Students xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <FolderType xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Teachers xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Teachers>
-    <TeamsChannelId xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <IsNotebookLocked xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Is_Collaboration_Space_Locked xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Teams_Channel_Section_Location xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Math_Settings xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Owner xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Owner>
-    <Students xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Students>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3fb344db-9a83-4925-8457-d4a81a8233b7" xsi:nil="true"/>
-    <NotebookType xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <DefaultSectionNames xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE473839-D414-4B78-82BC-08E64CD93726}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05539879-8A52-4B74-9FF2-F471F780BCE4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3060,30 +3223,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE473839-D414-4B78-82BC-08E64CD93726}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE303A41-7D70-49B7-87A8-C6207A042BC3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="52c6fd7a-766c-4f84-9f35-2a37be325271"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="cc3645a1-58b5-4da5-acb4-f681c13b5e81"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="3fb344db-9a83-4925-8457-d4a81a8233b7"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/documentation/133_GESTPROJ_RSB.xlsx
+++ b/documentation/133_GESTPROJ_RSB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28816"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/bernardo_simoes_studentfr_ch/Documents/RP/3eme année/133/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="388" documentId="13_ncr:1_{B2EE3FAD-7866-4BF9-A652-D7DAE85AC2A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC03E4B7-04BB-4199-AB29-5FB417138CF9}"/>
+  <xr:revisionPtr revIDLastSave="956" documentId="13_ncr:1_{B2EE3FAD-7866-4BF9-A652-D7DAE85AC2A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{155CC691-0BD9-47A3-9C44-6D9DF281831E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Journal SIM" sheetId="3" r:id="rId3"/>
     <sheet name="Journal RIB" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="157">
   <si>
     <t>Planning</t>
   </si>
@@ -128,6 +128,9 @@
     <t>Théorie + TT</t>
   </si>
   <si>
+    <t>X</t>
+  </si>
+  <si>
     <t>Analyse</t>
   </si>
   <si>
@@ -170,9 +173,24 @@
     <t>Tests de l'application</t>
   </si>
   <si>
+    <t>FONCTIONNEMENT REST 1</t>
+  </si>
+  <si>
+    <t>FONCTIONNEMENT REST 2</t>
+  </si>
+  <si>
+    <t>FONCTIONNEMENT REST 3</t>
+  </si>
+  <si>
+    <t>FONCTIONNEMENT GLOBAL</t>
+  </si>
+  <si>
     <t>Démonstration</t>
   </si>
   <si>
+    <t>Démonstration de l'application</t>
+  </si>
+  <si>
     <t>Documentation</t>
   </si>
   <si>
@@ -182,7 +200,7 @@
     <t>Elève / classe</t>
   </si>
   <si>
-    <t>Bernardo Simões / 300231</t>
+    <t>Yann Blanchard / 300231</t>
   </si>
   <si>
     <t>Date</t>
@@ -192,6 +210,111 @@
   </si>
   <si>
     <t>Temps d'exécution [heures]</t>
+  </si>
+  <si>
+    <t>Réflexion sur thème projet</t>
+  </si>
+  <si>
+    <t>Validation du thème</t>
+  </si>
+  <si>
+    <t>Attribution des différentes taches</t>
+  </si>
+  <si>
+    <t>Analyse (Uses cases, activtés, séquences)</t>
+  </si>
+  <si>
+    <t>Conception (Navigations, Client-JSP)</t>
+  </si>
+  <si>
+    <t>Schémas DB (ER et workbench)</t>
+  </si>
+  <si>
+    <t>Journal</t>
+  </si>
+  <si>
+    <t>Fin conception (Diagramme de classes)</t>
+  </si>
+  <si>
+    <t>Documentation Analyse + conception</t>
+  </si>
+  <si>
+    <t>Implémentation ( APIRest client)</t>
+  </si>
+  <si>
+    <t>EmfAudit</t>
+  </si>
+  <si>
+    <t>Implémentation ( Finalisation APIRest client)</t>
+  </si>
+  <si>
+    <t>Problème sécurity spring boot</t>
+  </si>
+  <si>
+    <t>Test méthodes APIRest client</t>
+  </si>
+  <si>
+    <t>Correction méthodes APIRest client</t>
+  </si>
+  <si>
+    <t>Finalisation APIGateway partie client</t>
+  </si>
+  <si>
+    <t>Réalisation dockerfile</t>
+  </si>
+  <si>
+    <t>Réalisation dockercompose</t>
+  </si>
+  <si>
+    <t>Problème images docker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Problème images docker </t>
+  </si>
+  <si>
+    <t>Correction ApiRest Client</t>
+  </si>
+  <si>
+    <t>Résolution problèmes apiGateway avec rest</t>
+  </si>
+  <si>
+    <t>journal</t>
+  </si>
+  <si>
+    <t>Finalisation APIGateway partie client après split db</t>
+  </si>
+  <si>
+    <t>Problème pour commande après split db</t>
+  </si>
+  <si>
+    <t>Problème entreprise après split db</t>
+  </si>
+  <si>
+    <t>Correction bug entreprise</t>
+  </si>
+  <si>
+    <t>Mise en place sur docker desktop</t>
+  </si>
+  <si>
+    <t>Test global après mise en place docker desktop</t>
+  </si>
+  <si>
+    <t>Correction problème après docker desktop</t>
+  </si>
+  <si>
+    <t>audit</t>
+  </si>
+  <si>
+    <t>Mise en place docker distant</t>
+  </si>
+  <si>
+    <t>Test gobal après mise en place docker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Démonstration projet </t>
+  </si>
+  <si>
+    <t>Documentation de projet</t>
   </si>
   <si>
     <t xml:space="preserve">Total </t>
@@ -315,110 +438,185 @@
     </r>
   </si>
   <si>
-    <t>Yann Blanchard / 300231</t>
+    <t>Bernardo Simões / 300231</t>
+  </si>
+  <si>
+    <t>Réalisation du planning</t>
+  </si>
+  <si>
+    <t>Réalisation des UseCases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mise en commun dans l'équipe </t>
+  </si>
+  <si>
+    <t>Réalisation diagramme d'activités</t>
+  </si>
+  <si>
+    <t>Réalisation diagrammes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Réalisation diagramme de séquence </t>
+  </si>
+  <si>
+    <t>Réalisation diagramme de classes navigation</t>
+  </si>
+  <si>
+    <t>Réalisation diagrammes de classes APIGateway</t>
+  </si>
+  <si>
+    <t>Réalisation diagramme des architectes</t>
+  </si>
+  <si>
+    <t>Mise en place de la structure du backend</t>
+  </si>
+  <si>
+    <t>Mise en place du code pour le backend admin</t>
+  </si>
+  <si>
+    <t>Réalisation du journal et EMFAudits</t>
+  </si>
+  <si>
+    <t>Réalisation API admin</t>
+  </si>
+  <si>
+    <t>Mise en place structure APIGateway</t>
+  </si>
+  <si>
+    <t>Codage du Ctrl APIGateway</t>
+  </si>
+  <si>
+    <t>Changement du code dans le rest Admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mise en place de la config AdminDTO dans APIGateway </t>
+  </si>
+  <si>
+    <t>Création dockerfile</t>
+  </si>
+  <si>
+    <t>Test dockerfile</t>
+  </si>
+  <si>
+    <t>Création docker compose</t>
+  </si>
+  <si>
+    <t>Correction avec docker compose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Changement code repo et entity beans </t>
+  </si>
+  <si>
+    <t>Test de mon code et finalisation des details</t>
+  </si>
+  <si>
+    <t>Split db</t>
+  </si>
+  <si>
+    <t>Test split Db</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correction des bugs </t>
+  </si>
+  <si>
+    <t>Correction docker compose complet</t>
+  </si>
+  <si>
+    <t>Test avec docker et correction</t>
+  </si>
+  <si>
+    <t>Pousser docker bis</t>
+  </si>
+  <si>
+    <t>Test docker distant</t>
+  </si>
+  <si>
+    <t>Test finaux et demonstration</t>
   </si>
   <si>
     <t>Joel Ribeiro / 300231</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Réalisation des UseCases</t>
-  </si>
-  <si>
-    <t>Réalisation diagramme d'activités</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Réalisation diagramme de séquence </t>
+    <t>Question sur le projet avec l'enseignant</t>
+  </si>
+  <si>
+    <t>Répartition des tâches</t>
+  </si>
+  <si>
+    <t>Mise en place du planning</t>
+  </si>
+  <si>
+    <t>Maquettes de l'application</t>
   </si>
   <si>
     <t>Diagramme UseCases</t>
   </si>
   <si>
-    <t>Maquettes de l'application</t>
-  </si>
-  <si>
-    <t>Réflexion sur thème projet</t>
-  </si>
-  <si>
-    <t>Question sur le projet avec l'enseignant</t>
-  </si>
-  <si>
-    <t>Répartition des tâches</t>
-  </si>
-  <si>
-    <t>Mise en place du planning</t>
+    <t>Diagramme d'Activité</t>
   </si>
   <si>
     <t>Diagramme de Séquence</t>
   </si>
   <si>
-    <t>Diagramme d'Activité</t>
-  </si>
-  <si>
-    <t>Validation du thème</t>
-  </si>
-  <si>
-    <t>Attribution des différentes taches</t>
-  </si>
-  <si>
-    <t>Analyse (Uses cases, activtés, séquences)</t>
-  </si>
-  <si>
-    <t>Réalisation du planning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mise en commun dans l'équipe </t>
-  </si>
-  <si>
-    <t>Schémas DB (ER et workbench)</t>
-  </si>
-  <si>
     <t>Documentation de l'analyse</t>
   </si>
   <si>
-    <t>Conception (Navigations, Client-JSP)</t>
-  </si>
-  <si>
-    <t>Journal</t>
-  </si>
-  <si>
-    <t>Réalisation diagramme de classes navigation</t>
-  </si>
-  <si>
-    <t>Réalisation diagrammes de classes APIGateway</t>
-  </si>
-  <si>
-    <t>Réalisation diagramme des architectes</t>
-  </si>
-  <si>
-    <t>Mise en place de la structure du backend</t>
-  </si>
-  <si>
-    <t>Mise en place du code pour le backend admin</t>
-  </si>
-  <si>
-    <t>Réalisation du journal et EMFAudits</t>
-  </si>
-  <si>
-    <t>Fin conception (Diagramme de classes)</t>
-  </si>
-  <si>
-    <t>Documentation Analyse + conception</t>
-  </si>
-  <si>
-    <t>Implémentation ( APIRest client)</t>
-  </si>
-  <si>
-    <t>Démonstration de l'application</t>
+    <t>Implémentation ( Structure )</t>
+  </si>
+  <si>
+    <t>Implémentation ( API Rest )</t>
+  </si>
+  <si>
+    <t>Test Implémentation</t>
+  </si>
+  <si>
+    <t>Modification de l'implémentation</t>
+  </si>
+  <si>
+    <t>Entretient Entreprise</t>
+  </si>
+  <si>
+    <t>EMFAUDIT</t>
+  </si>
+  <si>
+    <t>Modification de l'implémentation ( API Rest )</t>
+  </si>
+  <si>
+    <t>Implémentation ( API Gateway )</t>
+  </si>
+  <si>
+    <t>Modification de l'implémentation ( API Gateway )</t>
+  </si>
+  <si>
+    <t>Implémentation ( Frontend )</t>
+  </si>
+  <si>
+    <t>Implémentation conteneurisation</t>
+  </si>
+  <si>
+    <t>Test Implémentation avec la conteneurisation</t>
+  </si>
+  <si>
+    <t>Modification Implémentation conteneurisation</t>
+  </si>
+  <si>
+    <t>Implémentation Docker-Bis</t>
+  </si>
+  <si>
+    <t>Documentation de l'implémentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Démonstration du projet à l'enseignant</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -541,7 +739,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -869,11 +1067,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="90"/>
@@ -968,6 +1177,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -989,22 +1222,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1020,10 +1237,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1316,13 +1529,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P30"/>
+  <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A18" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30:J30"/>
+    <sheetView showGridLines="0" tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="B1" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="7.85546875" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="27.42578125" customWidth="1"/>
     <col min="2" max="10" width="8" customWidth="1"/>
@@ -1333,65 +1546,65 @@
     <col min="15" max="16" width="6.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:16" ht="31.5">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-    </row>
-    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+    </row>
+    <row r="2" spans="1:16" ht="15.75" thickBot="1"/>
+    <row r="3" spans="1:16" ht="21.75" thickBot="1">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="53"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="65"/>
       <c r="N3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="52">
+      <c r="O3" s="64">
         <v>300231</v>
       </c>
-      <c r="P3" s="53"/>
-    </row>
-    <row r="4" spans="1:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P3" s="65"/>
+    </row>
+    <row r="4" spans="1:16" ht="21.75" thickBot="1">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="53"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="65"/>
       <c r="N4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1399,35 +1612,35 @@
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="49" t="s">
+    <row r="6" spans="1:16" ht="15.75" thickBot="1"/>
+    <row r="7" spans="1:16" ht="15.75" thickBot="1">
+      <c r="B7" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="49" t="s">
+      <c r="C7" s="62"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="50"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="49" t="s">
+      <c r="F7" s="62"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="50"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="49" t="s">
+      <c r="I7" s="62"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="50"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="49" t="s">
+      <c r="L7" s="62"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="O7" s="50"/>
-      <c r="P7" s="51"/>
-    </row>
-    <row r="8" spans="1:16" s="1" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O7" s="62"/>
+      <c r="P7" s="63"/>
+    </row>
+    <row r="8" spans="1:16" s="1" customFormat="1" ht="96" customHeight="1">
       <c r="A8" s="24" t="s">
         <v>12</v>
       </c>
@@ -1477,7 +1690,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="14.45" customHeight="1">
       <c r="A9" s="17" t="s">
         <v>28</v>
       </c>
@@ -1497,19 +1710,19 @@
       <c r="O9" s="40"/>
       <c r="P9" s="39"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="A10" s="5"/>
       <c r="B10" s="37" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="C10" s="41" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="E10" s="37" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="13"/>
@@ -1523,9 +1736,9 @@
       <c r="O10" s="21"/>
       <c r="P10" s="13"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="A11" s="17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B11" s="17"/>
       <c r="C11" s="40"/>
@@ -1543,19 +1756,19 @@
       <c r="O11" s="40"/>
       <c r="P11" s="39"/>
     </row>
-    <row r="12" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" outlineLevel="1">
       <c r="A12" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="7"/>
       <c r="D12" s="13"/>
       <c r="E12" s="12"/>
       <c r="F12" s="45" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="G12" s="45" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="H12" s="12"/>
       <c r="I12" s="7"/>
@@ -1567,9 +1780,9 @@
       <c r="O12" s="7"/>
       <c r="P12" s="13"/>
     </row>
-    <row r="13" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" outlineLevel="1">
       <c r="A13" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="7"/>
@@ -1587,16 +1800,16 @@
       <c r="O13" s="7"/>
       <c r="P13" s="13"/>
     </row>
-    <row r="14" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" outlineLevel="1">
       <c r="A14" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="7"/>
       <c r="D14" s="13"/>
       <c r="E14" s="12"/>
       <c r="F14" s="45" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="G14" s="13"/>
       <c r="H14" s="12"/>
@@ -1609,9 +1822,9 @@
       <c r="O14" s="7"/>
       <c r="P14" s="13"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16">
       <c r="A15" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="21"/>
@@ -1620,7 +1833,7 @@
       <c r="F15" s="21"/>
       <c r="G15" s="11"/>
       <c r="H15" s="37" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="I15" s="21"/>
       <c r="J15" s="13"/>
@@ -1631,9 +1844,9 @@
       <c r="O15" s="21"/>
       <c r="P15" s="13"/>
     </row>
-    <row r="16" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" outlineLevel="1">
       <c r="A16" s="17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B16" s="17"/>
       <c r="C16" s="40"/>
@@ -1651,9 +1864,9 @@
       <c r="O16" s="40"/>
       <c r="P16" s="39"/>
     </row>
-    <row r="17" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" outlineLevel="1">
       <c r="A17" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="7"/>
@@ -1662,7 +1875,7 @@
       <c r="F17" s="7"/>
       <c r="G17" s="13"/>
       <c r="H17" s="46" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="I17" s="45"/>
       <c r="J17" s="13"/>
@@ -1673,9 +1886,9 @@
       <c r="O17" s="7"/>
       <c r="P17" s="13"/>
     </row>
-    <row r="18" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" outlineLevel="1">
       <c r="A18" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="7"/>
@@ -1684,7 +1897,7 @@
       <c r="F18" s="7"/>
       <c r="G18" s="13"/>
       <c r="H18" s="46" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="I18" s="6"/>
       <c r="J18" s="13"/>
@@ -1695,9 +1908,9 @@
       <c r="O18" s="7"/>
       <c r="P18" s="13"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16">
       <c r="A19" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="21"/>
@@ -1706,7 +1919,7 @@
       <c r="F19" s="21"/>
       <c r="G19" s="13"/>
       <c r="H19" s="46" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="I19" s="42"/>
       <c r="J19" s="13"/>
@@ -1717,9 +1930,9 @@
       <c r="O19" s="21"/>
       <c r="P19" s="13"/>
     </row>
-    <row r="20" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" outlineLevel="1">
       <c r="A20" s="17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B20" s="17"/>
       <c r="C20" s="40"/>
@@ -1737,9 +1950,9 @@
       <c r="O20" s="40"/>
       <c r="P20" s="39"/>
     </row>
-    <row r="21" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" outlineLevel="1">
       <c r="A21" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="7"/>
@@ -1749,7 +1962,7 @@
       <c r="G21" s="13"/>
       <c r="H21" s="12"/>
       <c r="I21" s="47" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="J21" s="13"/>
       <c r="K21" s="43"/>
@@ -1759,9 +1972,9 @@
       <c r="O21" s="7"/>
       <c r="P21" s="13"/>
     </row>
-    <row r="22" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" outlineLevel="1">
       <c r="A22" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="7"/>
@@ -1772,16 +1985,22 @@
       <c r="H22" s="12"/>
       <c r="I22" s="7"/>
       <c r="J22" s="11"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="11"/>
+      <c r="K22" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="L22" s="38" t="s">
+        <v>29</v>
+      </c>
       <c r="M22" s="11"/>
-      <c r="N22" s="10"/>
+      <c r="N22" s="37" t="s">
+        <v>29</v>
+      </c>
       <c r="O22" s="7"/>
       <c r="P22" s="13"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16">
       <c r="A23" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="21"/>
@@ -1791,17 +2010,23 @@
       <c r="G23" s="13"/>
       <c r="H23" s="12"/>
       <c r="I23" s="21"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="11"/>
+      <c r="J23" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="K23" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="L23" s="38" t="s">
+        <v>29</v>
+      </c>
       <c r="M23" s="11"/>
       <c r="N23" s="10"/>
       <c r="O23" s="21"/>
       <c r="P23" s="13"/>
     </row>
-    <row r="24" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" outlineLevel="1">
       <c r="A24" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B24" s="17"/>
       <c r="C24" s="40"/>
@@ -1819,8 +2044,10 @@
       <c r="O24" s="40"/>
       <c r="P24" s="39"/>
     </row>
-    <row r="25" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
+    <row r="25" spans="1:16" outlineLevel="1">
+      <c r="A25" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="B25" s="12"/>
       <c r="C25" s="7"/>
       <c r="D25" s="13"/>
@@ -1834,11 +2061,15 @@
       <c r="L25" s="7"/>
       <c r="M25" s="13"/>
       <c r="N25" s="12"/>
-      <c r="O25" s="7"/>
+      <c r="O25" s="10" t="s">
+        <v>29</v>
+      </c>
       <c r="P25" s="13"/>
     </row>
-    <row r="26" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
+    <row r="26" spans="1:16" outlineLevel="1">
+      <c r="A26" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="B26" s="20"/>
       <c r="C26" s="21"/>
       <c r="D26" s="22"/>
@@ -1852,11 +2083,15 @@
       <c r="L26" s="21"/>
       <c r="M26" s="22"/>
       <c r="N26" s="20"/>
-      <c r="O26" s="21"/>
+      <c r="O26" s="10" t="s">
+        <v>29</v>
+      </c>
       <c r="P26" s="22"/>
     </row>
-    <row r="27" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
+    <row r="27" spans="1:16" outlineLevel="1">
+      <c r="A27" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="B27" s="20"/>
       <c r="C27" s="21"/>
       <c r="D27" s="22"/>
@@ -1870,33 +2105,35 @@
       <c r="L27" s="21"/>
       <c r="M27" s="22"/>
       <c r="N27" s="20"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="13"/>
-    </row>
-    <row r="28" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="58"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="59"/>
-      <c r="J28" s="60"/>
-      <c r="K28" s="58"/>
-      <c r="L28" s="59"/>
-      <c r="M28" s="60"/>
-      <c r="N28" s="58"/>
-      <c r="O28" s="59"/>
-      <c r="P28" s="60"/>
-    </row>
-    <row r="29" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="19" t="s">
-        <v>90</v>
-      </c>
+      <c r="O27" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="P27" s="22"/>
+    </row>
+    <row r="28" spans="1:16" outlineLevel="1">
+      <c r="A28" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="20"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" outlineLevel="1">
+      <c r="A29" s="19"/>
       <c r="B29" s="20"/>
       <c r="C29" s="21"/>
       <c r="D29" s="22"/>
@@ -1910,38 +2147,90 @@
       <c r="L29" s="21"/>
       <c r="M29" s="22"/>
       <c r="N29" s="20"/>
-      <c r="O29" s="42"/>
-      <c r="P29" s="61"/>
-    </row>
-    <row r="30" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="G30" s="63" t="s">
-        <v>60</v>
-      </c>
-      <c r="H30" s="64" t="s">
-        <v>60</v>
-      </c>
-      <c r="I30" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="J30" s="63" t="s">
-        <v>60</v>
-      </c>
-      <c r="K30" s="57"/>
-      <c r="L30" s="55"/>
-      <c r="M30" s="56"/>
-      <c r="N30" s="57"/>
-      <c r="O30" s="55"/>
-      <c r="P30" s="56"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="13"/>
+    </row>
+    <row r="30" spans="1:16" outlineLevel="1">
+      <c r="A30" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="50"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="50"/>
+      <c r="L30" s="51"/>
+      <c r="M30" s="52"/>
+      <c r="N30" s="50"/>
+      <c r="O30" s="51"/>
+      <c r="P30" s="52"/>
+    </row>
+    <row r="31" spans="1:16" outlineLevel="1">
+      <c r="A31" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="20"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="42"/>
+      <c r="P31" s="53" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A32" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="G32" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="H32" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="I32" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="J32" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="K32" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="L32" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="M32" s="55"/>
+      <c r="N32" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="O32" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="P32" s="49" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1966,37 +2255,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E02AACB0-8D11-4262-BA3D-442B8F217532}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.42578125" customWidth="1"/>
     <col min="2" max="2" width="63.85546875" customWidth="1"/>
     <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="31.5">
+      <c r="A1" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="3" spans="1:3" ht="21.75" thickBot="1">
       <c r="A3" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" ht="21.75" thickBot="1">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -2005,197 +2294,495 @@
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="7" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="25.5">
       <c r="A7" s="26" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="28">
         <v>45740</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C8" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="28">
         <v>45740</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="C9" s="30">
         <v>0.25</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="28">
         <v>45740</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C10" s="30">
         <v>0.25</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="28">
         <v>45740</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C11" s="30">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="28">
         <v>45741</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="C12" s="30">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="28">
         <v>45741</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="C13" s="30">
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="28">
         <v>45741</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C14" s="30">
         <v>0.75</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="28">
         <v>45741</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="C15" s="30">
         <v>0.25</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="28">
         <v>45747</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="C16" s="30">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="28">
         <v>45747</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="C17" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="28">
         <v>45747</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="C18" s="30">
         <v>3.75</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="28">
         <v>45747</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="C19" s="30">
         <v>0.25</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="30"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="30"/>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" s="29"/>
+    <row r="20" spans="1:3">
+      <c r="A20" s="28">
+        <v>45748</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="30">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="28">
+        <v>45748</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="28">
+        <v>45748</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>69</v>
+      </c>
       <c r="C22" s="30">
-        <f>SUM(C8:C21)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="32" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="33" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="34" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="33" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="34" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="34" t="s">
-        <v>57</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="28">
+        <v>45748</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="30">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="28">
+        <v>45748</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="30">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="28">
+        <v>45754</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="28">
+        <v>45754</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="28">
+        <v>45754</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="28">
+        <v>45754</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="28">
+        <v>45755</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="28">
+        <v>45755</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="30">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="28">
+        <v>45755</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="28">
+        <v>45755</v>
+      </c>
+      <c r="B32" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="30">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="28">
+        <v>45761</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="28">
+        <v>45761</v>
+      </c>
+      <c r="B34" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="30">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="28">
+        <v>45761</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="28">
+        <v>45761</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="28">
+        <v>45761</v>
+      </c>
+      <c r="B37" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" s="30">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="28">
+        <v>45761</v>
+      </c>
+      <c r="B38" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" s="30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="28">
+        <v>45761</v>
+      </c>
+      <c r="B39" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="28">
+        <v>45761</v>
+      </c>
+      <c r="B40" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="30">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="28">
+        <v>45761</v>
+      </c>
+      <c r="B41" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" s="30">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="28">
+        <v>45762</v>
+      </c>
+      <c r="B42" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="28">
+        <v>45762</v>
+      </c>
+      <c r="B43" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" s="30">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="28">
+        <v>45762</v>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" s="30">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="28">
+        <v>45762</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" s="30">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="28">
+        <v>45762</v>
+      </c>
+      <c r="B46" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C46" s="30">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="28">
+        <v>45762</v>
+      </c>
+      <c r="B47" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C47" s="30">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15.75">
+      <c r="A48" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" s="29"/>
+      <c r="C48" s="30">
+        <f>SUM(C8:C47)</f>
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="32" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="33" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="34" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="33" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="34" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="34" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2208,37 +2795,37 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30857E50-6563-4479-836B-FD504D9326D3}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.42578125" customWidth="1"/>
     <col min="2" max="2" width="63.85546875" customWidth="1"/>
     <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="31.5">
+      <c r="A1" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="3" spans="1:3" ht="21.75" thickBot="1">
       <c r="A3" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" ht="21.75" thickBot="1">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -2247,191 +2834,407 @@
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="7" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="25.5">
       <c r="A7" s="26" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="28">
         <v>45740</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="C8" s="30">
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="28">
         <v>45740</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="C9" s="30">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="28">
         <v>45740</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="C10" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="28">
         <v>45741</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="C11" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="28">
         <v>45741</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="C12" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="28">
-        <v>45747</v>
+        <v>45741</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="C13" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="28">
         <v>45747</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="C14" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="28">
         <v>45747</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="C15" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="28">
         <v>45747</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="C16" s="30">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="28">
         <v>45747</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="C17" s="30">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="28">
+        <v>45747</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" s="30">
         <v>3.5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="28">
+    <row r="19" spans="1:3">
+      <c r="A19" s="28">
         <v>45748</v>
       </c>
-      <c r="B18" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18" s="30">
+      <c r="B19" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" s="30">
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="28"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="30"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="30"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="30"/>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" s="29"/>
+    <row r="20" spans="1:3">
+      <c r="A20" s="28">
+        <v>45748</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" s="30">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="28">
+        <v>45748</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" s="30">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="28">
+        <v>45754</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>114</v>
+      </c>
       <c r="C22" s="30">
-        <f>SUM(C8:C21)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="32" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="33" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="34" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="33" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="34" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="34" t="s">
-        <v>57</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="28">
+        <v>45754</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="C23" s="30">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="28">
+        <v>45754</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="28">
+        <v>45754</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25" s="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="28">
+        <v>45754</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="28">
+        <v>45754</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="C27" s="30">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="28">
+        <v>45755</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="28">
+        <v>45755</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="28">
+        <v>45755</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" s="30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="28">
+        <v>45761</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="C31" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="28">
+        <v>45761</v>
+      </c>
+      <c r="B32" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="C32" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="28">
+        <v>45761</v>
+      </c>
+      <c r="B33" s="59" t="s">
+        <v>125</v>
+      </c>
+      <c r="C33" s="30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="28">
+        <v>45761</v>
+      </c>
+      <c r="B34" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="C34" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="28">
+        <v>45761</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="C35" s="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="28">
+        <v>45761</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="C36" s="30">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="28">
+        <v>45762</v>
+      </c>
+      <c r="B37" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="30">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="28">
+        <v>45762</v>
+      </c>
+      <c r="B38" s="59" t="s">
+        <v>129</v>
+      </c>
+      <c r="C38" s="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="17.25" customHeight="1">
+      <c r="A39" s="28">
+        <v>45762</v>
+      </c>
+      <c r="B39" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="C39" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75">
+      <c r="A40" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40" s="29"/>
+      <c r="C40" s="30">
+        <f>SUM(C8:C39)</f>
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="B42" s="32" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="B43" s="33" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="B44" s="34" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="B45" s="33" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="B46" s="34" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="B47" s="34" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2444,37 +3247,37 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA133C11-8028-46D2-816D-0D0F1126CB88}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.42578125" customWidth="1"/>
     <col min="2" max="2" width="63.85546875" customWidth="1"/>
     <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="31.5">
+      <c r="A1" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="3" spans="1:3" ht="21.75" thickBot="1">
       <c r="A3" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>59</v>
+        <v>131</v>
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" ht="21.75" thickBot="1">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -2483,173 +3286,452 @@
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="7" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="25.5">
       <c r="A7" s="26" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="28">
         <v>45740</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>67</v>
+        <v>132</v>
       </c>
       <c r="C8" s="30">
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="28">
         <v>45740</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>68</v>
+        <v>133</v>
       </c>
       <c r="C9" s="30">
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="28">
         <v>45740</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>69</v>
+        <v>134</v>
       </c>
       <c r="C10" s="30">
         <v>0.3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="28">
         <v>45740</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>65</v>
+        <v>135</v>
       </c>
       <c r="C11" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="28">
         <v>45740</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>64</v>
+        <v>136</v>
       </c>
       <c r="C12" s="30">
         <v>1.2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="28">
         <v>45741</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>71</v>
+        <v>137</v>
       </c>
       <c r="C13" s="30">
         <v>1.3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="28">
         <v>45741</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="C14" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="28">
         <v>45741</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="C15" s="30">
         <v>1.5</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="30"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="30"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="30"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="28"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="30"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="30"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="30"/>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" s="29"/>
+    <row r="16" spans="1:3">
+      <c r="A16" s="28">
+        <v>45747</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="C16" s="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="28">
+        <v>45747</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="C17" s="30">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="28">
+        <v>45747</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="C18" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="28">
+        <v>45747</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="C19" s="30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="28">
+        <v>45748</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20" s="30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="28">
+        <v>45748</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="30">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="28">
+        <v>45748</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>145</v>
+      </c>
       <c r="C22" s="30">
-        <f>SUM(C8:C21)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="32" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="33" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="34" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="33" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="34" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="34" t="s">
-        <v>57</v>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="28">
+        <v>45754</v>
+      </c>
+      <c r="B23" s="57" t="s">
+        <v>146</v>
+      </c>
+      <c r="C23" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="28">
+        <v>45754</v>
+      </c>
+      <c r="B24" s="57" t="s">
+        <v>147</v>
+      </c>
+      <c r="C24" s="30">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="28">
+        <v>45754</v>
+      </c>
+      <c r="B25" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="30">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="28">
+        <v>45754</v>
+      </c>
+      <c r="B26" s="57" t="s">
+        <v>146</v>
+      </c>
+      <c r="C26" s="30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="28">
+        <v>45754</v>
+      </c>
+      <c r="B27" s="57" t="s">
+        <v>148</v>
+      </c>
+      <c r="C27" s="30">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="28">
+        <v>45754</v>
+      </c>
+      <c r="B28" s="57" t="s">
+        <v>149</v>
+      </c>
+      <c r="C28" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="28">
+        <v>45755</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="C29" s="30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="28">
+        <v>45755</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="C30" s="30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="28">
+        <v>45755</v>
+      </c>
+      <c r="B31" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="30">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="28">
+        <v>45761</v>
+      </c>
+      <c r="B32" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="C32" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="28">
+        <v>45761</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="C33" s="30">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="28">
+        <v>45761</v>
+      </c>
+      <c r="B34" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="C34" s="30">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="28">
+        <v>45761</v>
+      </c>
+      <c r="B35" s="57" t="s">
+        <v>150</v>
+      </c>
+      <c r="C35" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="28">
+        <v>45761</v>
+      </c>
+      <c r="B36" s="57" t="s">
+        <v>151</v>
+      </c>
+      <c r="C36" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="28">
+        <v>45761</v>
+      </c>
+      <c r="B37" s="57" t="s">
+        <v>152</v>
+      </c>
+      <c r="C37" s="30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="28">
+        <v>45761</v>
+      </c>
+      <c r="B38" s="57" t="s">
+        <v>153</v>
+      </c>
+      <c r="C38" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="28">
+        <v>45761</v>
+      </c>
+      <c r="B39" s="57" t="s">
+        <v>154</v>
+      </c>
+      <c r="C39" s="30">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="28">
+        <v>45762</v>
+      </c>
+      <c r="B40" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="I40" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="28">
+        <v>45762</v>
+      </c>
+      <c r="B41" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" s="30">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="28">
+        <v>45762</v>
+      </c>
+      <c r="B42" s="58" t="s">
+        <v>156</v>
+      </c>
+      <c r="C42" s="30">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="28"/>
+      <c r="C43" s="30"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="28"/>
+      <c r="B44" s="58"/>
+      <c r="C44" s="30"/>
+    </row>
+    <row r="45" spans="1:9" ht="15.75">
+      <c r="A45" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45" s="29"/>
+      <c r="C45" s="30">
+        <f>SUM(C8:C44)</f>
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="B47" s="32" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="B48" s="33" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="34" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="33" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="34" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="34" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2661,71 +3743,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Self_Registration_Enabled xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Student_Groups xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Student_Groups>
-    <Distribution_Groups xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <AppVersion xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Invited_Teachers xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Templates xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Has_Teacher_Only_SectionGroup xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <CultureName xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <LMS_Mappings xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Invited_Students xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <FolderType xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Teachers xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Teachers>
-    <TeamsChannelId xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <IsNotebookLocked xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Is_Collaboration_Space_Locked xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Teams_Channel_Section_Location xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Math_Settings xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Owner xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Owner>
-    <Students xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Students>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3fb344db-9a83-4925-8457-d4a81a8233b7" xsi:nil="true"/>
-    <NotebookType xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <DefaultSectionNames xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004EEFC8B7315DA4449F69FE97A704FE57" ma:contentTypeVersion="35" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="c91a1a7a62e987314df808fa39da4b34">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cc3645a1-58b5-4da5-acb4-f681c13b5e81" xmlns:ns3="3fb344db-9a83-4925-8457-d4a81a8233b7" xmlns:ns4="52c6fd7a-766c-4f84-9f35-2a37be325271" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5e3023738844047246cab05fc3830165" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="cc3645a1-58b5-4da5-acb4-f681c13b5e81"/>
@@ -3179,48 +4196,79 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Self_Registration_Enabled xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Student_Groups xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Student_Groups>
+    <Distribution_Groups xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <AppVersion xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Invited_Teachers xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Templates xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Has_Teacher_Only_SectionGroup xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <CultureName xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <LMS_Mappings xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Invited_Students xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <FolderType xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Teachers xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Teachers>
+    <TeamsChannelId xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <IsNotebookLocked xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Is_Collaboration_Space_Locked xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Teams_Channel_Section_Location xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Math_Settings xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Owner xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Owner>
+    <Students xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Students>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3fb344db-9a83-4925-8457-d4a81a8233b7" xsi:nil="true"/>
+    <NotebookType xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <DefaultSectionNames xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE303A41-7D70-49B7-87A8-C6207A042BC3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="52c6fd7a-766c-4f84-9f35-2a37be325271"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="cc3645a1-58b5-4da5-acb4-f681c13b5e81"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="3fb344db-9a83-4925-8457-d4a81a8233b7"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05539879-8A52-4B74-9FF2-F471F780BCE4}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE473839-D414-4B78-82BC-08E64CD93726}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE303A41-7D70-49B7-87A8-C6207A042BC3}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05539879-8A52-4B74-9FF2-F471F780BCE4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="cc3645a1-58b5-4da5-acb4-f681c13b5e81"/>
-    <ds:schemaRef ds:uri="3fb344db-9a83-4925-8457-d4a81a8233b7"/>
-    <ds:schemaRef ds:uri="52c6fd7a-766c-4f84-9f35-2a37be325271"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE473839-D414-4B78-82BC-08E64CD93726}"/>
 </file>